--- a/Calendario-participacion.xlsx
+++ b/Calendario-participacion.xlsx
@@ -10,17 +10,17 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t xml:space="preserve">Unidad</t>
   </si>
@@ -52,19 +52,22 @@
     <t xml:space="preserve">3. Aplicación de modelos digitales de elevación</t>
   </si>
   <si>
-    <t xml:space="preserve">Iris/Citlali</t>
+    <t xml:space="preserve">Iris</t>
   </si>
   <si>
     <t xml:space="preserve">4. Análisis multicriterio</t>
   </si>
   <si>
+    <t xml:space="preserve">7. Modelado de la distribución potencial de especies</t>
+  </si>
+  <si>
     <t xml:space="preserve">5. Evaluación de la calidad de datos</t>
   </si>
   <si>
+    <t xml:space="preserve">Citlali</t>
+  </si>
+  <si>
     <t xml:space="preserve">6. Modelado de cambio de uso de cobertura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. Modelado de la distribución potencial de especies</t>
   </si>
   <si>
     <t xml:space="preserve">8. Discusión y conclusión</t>
@@ -83,6 +86,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -100,7 +104,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +120,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFDBB6"/>
+        <bgColor rgb="FFF6F9D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE6EF"/>
         <bgColor rgb="FFF6F9D4"/>
       </patternFill>
     </fill>
@@ -160,7 +170,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -182,6 +192,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -215,7 +237,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFF6F9D4"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -264,16 +286,16 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="146" zoomScaleNormal="146" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.66"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -293,7 +315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -301,18 +323,18 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>45320</v>
+        <v>45684</v>
       </c>
       <c r="D2" s="3" t="n">
         <f aca="false">C2+4</f>
-        <v>45324</v>
+        <v>45688</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -321,20 +343,20 @@
       </c>
       <c r="C3" s="3" t="n">
         <f aca="false">C2+7</f>
-        <v>45327</v>
+        <v>45691</v>
       </c>
       <c r="D3" s="3" t="n">
         <f aca="false">C3+4</f>
-        <v>45331</v>
+        <v>45695</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>45327</v>
+        <v>45691</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -343,18 +365,18 @@
       </c>
       <c r="C4" s="3" t="n">
         <f aca="false">C3+7</f>
-        <v>45334</v>
+        <v>45698</v>
       </c>
       <c r="D4" s="3" t="n">
         <f aca="false">C4+4</f>
-        <v>45338</v>
+        <v>45702</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -363,18 +385,18 @@
       </c>
       <c r="C5" s="3" t="n">
         <f aca="false">C4+7</f>
-        <v>45341</v>
+        <v>45705</v>
       </c>
       <c r="D5" s="3" t="n">
         <f aca="false">C5+4</f>
-        <v>45345</v>
+        <v>45709</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -383,18 +405,18 @@
       </c>
       <c r="C6" s="5" t="n">
         <f aca="false">C5+7</f>
-        <v>45348</v>
+        <v>45712</v>
       </c>
       <c r="D6" s="5" t="n">
-        <f aca="false">C6+3</f>
-        <v>45351</v>
+        <f aca="false">C6+4</f>
+        <v>45716</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -402,19 +424,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="n">
-        <f aca="false">C6+6</f>
-        <v>45354</v>
+        <f aca="false">C6+7</f>
+        <v>45719</v>
       </c>
       <c r="D7" s="5" t="n">
         <f aca="false">C7+4</f>
-        <v>45358</v>
+        <v>45723</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -423,20 +445,20 @@
       </c>
       <c r="C8" s="5" t="n">
         <f aca="false">C7+7</f>
-        <v>45361</v>
+        <v>45726</v>
       </c>
       <c r="D8" s="5" t="n">
         <f aca="false">C8+4</f>
-        <v>45365</v>
+        <v>45730</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45369</v>
+        <v>45733</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -445,177 +467,175 @@
       </c>
       <c r="C9" s="5" t="n">
         <f aca="false">C8+7</f>
-        <v>45368</v>
+        <v>45733</v>
       </c>
       <c r="D9" s="5" t="n">
         <f aca="false">C9+4</f>
-        <v>45372</v>
+        <v>45737</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="n">
-        <f aca="false">C9+14</f>
-        <v>45382</v>
+        <f aca="false">C9+7</f>
+        <v>45740</v>
       </c>
       <c r="D10" s="5" t="n">
         <f aca="false">C10+4</f>
-        <v>45386</v>
+        <v>45744</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="3" t="n">
         <f aca="false">C10+7</f>
-        <v>45389</v>
-      </c>
-      <c r="D11" s="5" t="n">
+        <v>45747</v>
+      </c>
+      <c r="D11" s="3" t="n">
         <f aca="false">C11+4</f>
-        <v>45393</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+        <v>45751</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <f aca="false">C11+7</f>
+        <v>45754</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <f aca="false">C12+4</f>
+        <v>45758</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <f aca="false">C11+7</f>
-        <v>45396</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <f aca="false">C12+4</f>
-        <v>45400</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="B13" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <f aca="false">C12+14</f>
+        <v>45768</v>
+      </c>
+      <c r="D13" s="8" t="n">
+        <f aca="false">C13+4</f>
+        <v>45772</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <f aca="false">C12+7</f>
-        <v>45403</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <f aca="false">C13+4</f>
-        <v>45407</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="C14" s="8" t="n">
+        <f aca="false">C13+7</f>
+        <v>45775</v>
+      </c>
+      <c r="D14" s="8" t="n">
+        <f aca="false">C14+4</f>
+        <v>45779</v>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v>45778</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <f aca="false">C13+7</f>
-        <v>45410</v>
-      </c>
-      <c r="D14" s="3" t="n">
-        <f aca="false">C14+4</f>
-        <v>45414</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>45413</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="C15" s="8" t="n">
+        <f aca="false">C14+7</f>
+        <v>45782</v>
+      </c>
+      <c r="D15" s="8" t="n">
+        <f aca="false">C15+4</f>
+        <v>45786</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3" t="n">
-        <f aca="false">C14+7</f>
-        <v>45417</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <f aca="false">C15+4</f>
-        <v>45421</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>45422</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>15</v>
       </c>
       <c r="C16" s="3" t="n">
         <f aca="false">C15+7</f>
-        <v>45424</v>
+        <v>45789</v>
       </c>
       <c r="D16" s="3" t="n">
         <f aca="false">C16+4</f>
-        <v>45428</v>
+        <v>45793</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>45427</v>
+        <v>45792</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>16</v>
       </c>
       <c r="C17" s="3" t="n">
         <f aca="false">C16+7</f>
-        <v>45431</v>
+        <v>45796</v>
       </c>
       <c r="D17" s="3" t="n">
         <f aca="false">C17+4</f>
-        <v>45435</v>
+        <v>45800</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
